--- a/att/src/main/resources/incidents/Tennis/TennisAceDoublefaultCounter.xlsx
+++ b/att/src/main/resources/incidents/Tennis/TennisAceDoublefaultCounter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmorkhandikar\Desktop\MyExcelsheets for testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{779222BB-2402-4896-99CE-F4F220714C63}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB0DC6E-2BA5-4FBC-A0C4-19A650981241}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" xr2:uid="{0CAF2721-7CD1-43D6-95B2-B935F5B50283}"/>
   </bookViews>
@@ -183,9 +183,6 @@
     <t>true</t>
   </si>
   <si>
-    <t>double_fault</t>
-  </si>
-  <si>
     <t>undo</t>
   </si>
   <si>
@@ -457,6 +454,9 @@
   </si>
   <si>
     <t>08:55</t>
+  </si>
+  <si>
+    <t>doublefault</t>
   </si>
 </sst>
 </file>
@@ -509,16 +509,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="45" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="45" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -839,94 +836,158 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09E164CF-D012-422D-ACFE-F9F61FCB1949}">
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14.7265625" customWidth="1"/>
-    <col min="4" max="4" width="20.54296875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="20.54296875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="2"/>
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="6"/>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="A5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
       <c r="I5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>137</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>142</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -940,7 +1001,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
@@ -966,17 +1027,16 @@
       <c r="I7" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>17</v>
+      <c r="A8" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>136</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
@@ -998,20 +1058,20 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>138</v>
+      <c r="A9" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
@@ -1027,49 +1087,34 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
         <v>14</v>
       </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B11" t="s">
-        <v>137</v>
-      </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
@@ -1078,18 +1123,18 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
-        <v>21</v>
+      <c r="A12" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
@@ -1107,15 +1152,30 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>142</v>
+      </c>
+      <c r="E13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" t="s">
+        <v>16</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1129,10 +1189,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
@@ -1158,10 +1218,10 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
@@ -1170,7 +1230,7 @@
         <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F15" t="s">
         <v>16</v>
@@ -1186,49 +1246,34 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" t="s">
-        <v>11</v>
-      </c>
       <c r="D16" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I16" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
-        <v>27</v>
+      <c r="A17" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
         <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>140</v>
       </c>
       <c r="E17" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F17" t="s">
         <v>16</v>
@@ -1237,18 +1282,18 @@
         <v>1</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I17" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
         <v>11</v>
@@ -1266,15 +1311,30 @@
         <v>1</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I18" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
       <c r="D19" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="E19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" t="s">
+        <v>16</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1287,17 +1347,17 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="10" t="s">
-        <v>140</v>
+      <c r="A20" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
         <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>141</v>
+        <v>15</v>
       </c>
       <c r="E20" t="s">
         <v>29</v>
@@ -1317,10 +1377,10 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C21" t="s">
         <v>11</v>
@@ -1329,7 +1389,7 @@
         <v>15</v>
       </c>
       <c r="E21" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F21" t="s">
         <v>16</v>
@@ -1345,49 +1405,34 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" t="s">
-        <v>11</v>
-      </c>
       <c r="D22" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" t="s">
-        <v>29</v>
-      </c>
-      <c r="F22" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="H22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I22" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="4" t="s">
-        <v>32</v>
+      <c r="A23" s="9" t="s">
+        <v>141</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C23" t="s">
         <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>15</v>
+        <v>140</v>
       </c>
       <c r="E23" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F23" t="s">
         <v>16</v>
@@ -1396,18 +1441,18 @@
         <v>1</v>
       </c>
       <c r="H23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I23" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C24" t="s">
         <v>11</v>
@@ -1425,15 +1470,30 @@
         <v>1</v>
       </c>
       <c r="H24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I24" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
       <c r="D25" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="E25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" t="s">
+        <v>16</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1446,17 +1506,17 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="10" t="s">
-        <v>142</v>
+      <c r="A26" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C26" t="s">
         <v>11</v>
       </c>
       <c r="D26" t="s">
-        <v>141</v>
+        <v>15</v>
       </c>
       <c r="E26" t="s">
         <v>34</v>
@@ -1476,10 +1536,10 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C27" t="s">
         <v>11</v>
@@ -1488,7 +1548,7 @@
         <v>15</v>
       </c>
       <c r="E27" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F27" t="s">
         <v>16</v>
@@ -1504,40 +1564,25 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28" t="s">
-        <v>11</v>
-      </c>
       <c r="D28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" t="s">
-        <v>34</v>
-      </c>
-      <c r="F28" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G28">
         <v>1</v>
       </c>
       <c r="H28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I28" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C29" t="s">
         <v>11</v>
@@ -1546,7 +1591,7 @@
         <v>15</v>
       </c>
       <c r="E29" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F29" t="s">
         <v>16</v>
@@ -1555,18 +1600,18 @@
         <v>1</v>
       </c>
       <c r="H29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I29" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C30" t="s">
         <v>11</v>
@@ -1584,15 +1629,30 @@
         <v>1</v>
       </c>
       <c r="H30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I30" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
       <c r="D31" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="E31" t="s">
+        <v>39</v>
+      </c>
+      <c r="F31" t="s">
+        <v>16</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -1606,10 +1666,10 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C32" t="s">
         <v>11</v>
@@ -1618,7 +1678,7 @@
         <v>15</v>
       </c>
       <c r="E32" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
         <v>16</v>
@@ -1634,40 +1694,25 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A33" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B33" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33" t="s">
-        <v>11</v>
-      </c>
       <c r="D33" t="s">
-        <v>15</v>
-      </c>
-      <c r="E33" t="s">
-        <v>39</v>
-      </c>
-      <c r="F33" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G33">
         <v>1</v>
       </c>
       <c r="H33">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I33" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B34" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C34" t="s">
         <v>11</v>
@@ -1676,7 +1721,7 @@
         <v>15</v>
       </c>
       <c r="E34" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
         <v>16</v>
@@ -1685,18 +1730,18 @@
         <v>1</v>
       </c>
       <c r="H34">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I34" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B35" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C35" t="s">
         <v>11</v>
@@ -1714,15 +1759,30 @@
         <v>1</v>
       </c>
       <c r="H35">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I35" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A36" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" t="s">
+        <v>11</v>
+      </c>
       <c r="D36" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>16</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -1736,10 +1796,10 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B37" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C37" t="s">
         <v>11</v>
@@ -1748,7 +1808,7 @@
         <v>15</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F37" t="s">
         <v>16</v>
@@ -1762,94 +1822,7 @@
       <c r="I37" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A38" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B38" t="s">
-        <v>18</v>
-      </c>
-      <c r="C38" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38" t="s">
-        <v>15</v>
-      </c>
-      <c r="E38" t="s">
-        <v>44</v>
-      </c>
-      <c r="F38" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38">
-        <v>1</v>
-      </c>
-      <c r="H38">
-        <v>6</v>
-      </c>
-      <c r="I38" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A39" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B39" t="s">
-        <v>20</v>
-      </c>
-      <c r="C39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39" t="s">
-        <v>15</v>
-      </c>
-      <c r="E39" t="s">
-        <v>44</v>
-      </c>
-      <c r="F39" t="s">
-        <v>16</v>
-      </c>
-      <c r="G39">
-        <v>1</v>
-      </c>
-      <c r="H39">
-        <v>6</v>
-      </c>
-      <c r="I39" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A40" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B40" t="s">
-        <v>22</v>
-      </c>
-      <c r="C40" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" t="s">
-        <v>15</v>
-      </c>
-      <c r="E40" t="s">
-        <v>49</v>
-      </c>
-      <c r="F40" t="s">
-        <v>16</v>
-      </c>
-      <c r="G40">
-        <v>1</v>
-      </c>
-      <c r="H40">
-        <v>6</v>
-      </c>
-      <c r="I40" t="s">
-        <v>24</v>
-      </c>
-      <c r="J40" s="5" t="s">
+      <c r="J37" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1914,10 +1887,10 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
         <v>53</v>
-      </c>
-      <c r="B3" t="s">
-        <v>54</v>
       </c>
       <c r="C3" t="s">
         <v>24</v>
@@ -1943,10 +1916,10 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
         <v>55</v>
-      </c>
-      <c r="B4" t="s">
-        <v>56</v>
       </c>
       <c r="C4" t="s">
         <v>24</v>
@@ -1972,10 +1945,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" t="s">
         <v>57</v>
-      </c>
-      <c r="B5" t="s">
-        <v>58</v>
       </c>
       <c r="C5" t="s">
         <v>24</v>
@@ -2001,7 +1974,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
@@ -2016,7 +1989,7 @@
         <v>49</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -2044,10 +2017,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
         <v>24</v>
@@ -2059,7 +2032,7 @@
         <v>49</v>
       </c>
       <c r="F8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -2073,10 +2046,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
@@ -2088,7 +2061,7 @@
         <v>49</v>
       </c>
       <c r="F9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -2102,10 +2075,10 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
         <v>24</v>
@@ -2117,7 +2090,7 @@
         <v>49</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -2131,10 +2104,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" t="s">
         <v>64</v>
-      </c>
-      <c r="B11" t="s">
-        <v>65</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
@@ -2146,7 +2119,7 @@
         <v>49</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -2160,10 +2133,10 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" t="s">
         <v>66</v>
-      </c>
-      <c r="B12" t="s">
-        <v>67</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
@@ -2175,7 +2148,7 @@
         <v>49</v>
       </c>
       <c r="F12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -2189,10 +2162,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" t="s">
         <v>68</v>
-      </c>
-      <c r="B13" t="s">
-        <v>69</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
@@ -2204,7 +2177,7 @@
         <v>49</v>
       </c>
       <c r="F13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -2218,10 +2191,10 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
         <v>70</v>
-      </c>
-      <c r="B14" t="s">
-        <v>71</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
@@ -2233,7 +2206,7 @@
         <v>49</v>
       </c>
       <c r="F14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -2247,22 +2220,22 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E15" t="s">
         <v>49</v>
       </c>
       <c r="F15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -2276,10 +2249,10 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" t="s">
         <v>73</v>
-      </c>
-      <c r="B16" t="s">
-        <v>74</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
@@ -2291,7 +2264,7 @@
         <v>49</v>
       </c>
       <c r="F16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -2305,7 +2278,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B17" t="s">
         <v>22</v>
@@ -2320,7 +2293,7 @@
         <v>49</v>
       </c>
       <c r="F17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -2348,10 +2321,10 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C19" t="s">
         <v>24</v>
@@ -2363,7 +2336,7 @@
         <v>49</v>
       </c>
       <c r="F19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -2377,10 +2350,10 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
         <v>24</v>
@@ -2392,7 +2365,7 @@
         <v>49</v>
       </c>
       <c r="F20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -2406,10 +2379,10 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C21" t="s">
         <v>24</v>
@@ -2421,7 +2394,7 @@
         <v>49</v>
       </c>
       <c r="F21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -2435,7 +2408,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
@@ -2450,7 +2423,7 @@
         <v>49</v>
       </c>
       <c r="F22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -2478,10 +2451,10 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C24" t="s">
         <v>24</v>
@@ -2493,7 +2466,7 @@
         <v>49</v>
       </c>
       <c r="F24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -2507,10 +2480,10 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C25" t="s">
         <v>24</v>
@@ -2522,7 +2495,7 @@
         <v>49</v>
       </c>
       <c r="F25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -2536,10 +2509,10 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C26" t="s">
         <v>24</v>
@@ -2551,7 +2524,7 @@
         <v>49</v>
       </c>
       <c r="F26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -2565,7 +2538,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B27" t="s">
         <v>22</v>
@@ -2580,7 +2553,7 @@
         <v>49</v>
       </c>
       <c r="F27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G27">
         <v>2</v>
@@ -2608,10 +2581,10 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C29" t="s">
         <v>24</v>
@@ -2623,7 +2596,7 @@
         <v>49</v>
       </c>
       <c r="F29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -2637,10 +2610,10 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C30" t="s">
         <v>24</v>
@@ -2652,7 +2625,7 @@
         <v>49</v>
       </c>
       <c r="F30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -2666,10 +2639,10 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C31" t="s">
         <v>24</v>
@@ -2681,7 +2654,7 @@
         <v>49</v>
       </c>
       <c r="F31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G31">
         <v>2</v>
@@ -2695,7 +2668,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B32" t="s">
         <v>22</v>
@@ -2710,7 +2683,7 @@
         <v>49</v>
       </c>
       <c r="F32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -2738,10 +2711,10 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C34" t="s">
         <v>24</v>
@@ -2753,7 +2726,7 @@
         <v>49</v>
       </c>
       <c r="F34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -2767,10 +2740,10 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C35" t="s">
         <v>24</v>
@@ -2782,7 +2755,7 @@
         <v>49</v>
       </c>
       <c r="F35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G35">
         <v>2</v>
@@ -2796,10 +2769,10 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C36" t="s">
         <v>24</v>
@@ -2811,7 +2784,7 @@
         <v>49</v>
       </c>
       <c r="F36" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -2825,7 +2798,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B37" t="s">
         <v>22</v>
@@ -2840,7 +2813,7 @@
         <v>49</v>
       </c>
       <c r="F37" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G37">
         <v>2</v>
@@ -2915,7 +2888,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
@@ -2930,7 +2903,7 @@
         <v>49</v>
       </c>
       <c r="F3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -2944,7 +2917,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -2959,7 +2932,7 @@
         <v>49</v>
       </c>
       <c r="F4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -2973,7 +2946,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -2988,7 +2961,7 @@
         <v>49</v>
       </c>
       <c r="F5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -3002,7 +2975,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
@@ -3014,10 +2987,10 @@
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -3045,7 +3018,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
@@ -3057,10 +3030,10 @@
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G8">
         <v>3</v>
@@ -3074,7 +3047,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
@@ -3086,10 +3059,10 @@
         <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -3103,7 +3076,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
@@ -3115,10 +3088,10 @@
         <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -3132,7 +3105,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B11" t="s">
         <v>22</v>
@@ -3144,10 +3117,10 @@
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -3175,7 +3148,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
@@ -3187,10 +3160,10 @@
         <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -3204,7 +3177,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B14" t="s">
         <v>18</v>
@@ -3216,10 +3189,10 @@
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -3233,7 +3206,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B15" t="s">
         <v>20</v>
@@ -3245,10 +3218,10 @@
         <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -3262,7 +3235,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B16" t="s">
         <v>22</v>
@@ -3273,11 +3246,11 @@
       <c r="D16" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="8" t="s">
-        <v>111</v>
+      <c r="E16" s="7" t="s">
+        <v>110</v>
       </c>
       <c r="F16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -3305,7 +3278,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B18" t="s">
         <v>14</v>
@@ -3316,11 +3289,11 @@
       <c r="D18" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="8" t="s">
-        <v>111</v>
+      <c r="E18" s="7" t="s">
+        <v>110</v>
       </c>
       <c r="F18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G18">
         <v>3</v>
@@ -3334,7 +3307,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B19" t="s">
         <v>18</v>
@@ -3345,11 +3318,11 @@
       <c r="D19" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="8" t="s">
-        <v>111</v>
+      <c r="E19" s="7" t="s">
+        <v>110</v>
       </c>
       <c r="F19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G19">
         <v>3</v>
@@ -3363,7 +3336,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
@@ -3374,11 +3347,11 @@
       <c r="D20" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="8" t="s">
-        <v>111</v>
+      <c r="E20" s="7" t="s">
+        <v>110</v>
       </c>
       <c r="F20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G20">
         <v>3</v>
@@ -3392,7 +3365,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
@@ -3404,10 +3377,10 @@
         <v>15</v>
       </c>
       <c r="E21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G21">
         <v>3</v>
@@ -3436,7 +3409,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B23" t="s">
         <v>14</v>
@@ -3448,10 +3421,10 @@
         <v>15</v>
       </c>
       <c r="E23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -3465,7 +3438,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B24" t="s">
         <v>18</v>
@@ -3477,10 +3450,10 @@
         <v>15</v>
       </c>
       <c r="E24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -3494,7 +3467,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
@@ -3506,10 +3479,10 @@
         <v>15</v>
       </c>
       <c r="E25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -3523,7 +3496,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B26" t="s">
         <v>22</v>
@@ -3535,10 +3508,10 @@
         <v>15</v>
       </c>
       <c r="E26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -3567,7 +3540,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B28" t="s">
         <v>14</v>
@@ -3579,10 +3552,10 @@
         <v>15</v>
       </c>
       <c r="E28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -3596,7 +3569,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B29" t="s">
         <v>18</v>
@@ -3608,10 +3581,10 @@
         <v>15</v>
       </c>
       <c r="E29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -3625,7 +3598,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B30" t="s">
         <v>20</v>
@@ -3637,10 +3610,10 @@
         <v>15</v>
       </c>
       <c r="E30" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -3654,7 +3627,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B31" t="s">
         <v>22</v>
@@ -3666,10 +3639,10 @@
         <v>15</v>
       </c>
       <c r="E31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -3686,26 +3659,26 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="B32" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9">
-        <v>3</v>
-      </c>
-      <c r="H32" s="9">
-        <v>1</v>
-      </c>
-      <c r="I32" s="9" t="s">
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8">
+        <v>3</v>
+      </c>
+      <c r="H32" s="8">
+        <v>1</v>
+      </c>
+      <c r="I32" s="8" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3733,90 +3706,90 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" t="s">
         <v>129</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>130</v>
-      </c>
-      <c r="C1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" t="s">
         <v>132</v>
-      </c>
-      <c r="C2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" t="s">
         <v>130</v>
-      </c>
-      <c r="C3" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" t="s">
         <v>132</v>
-      </c>
-      <c r="C4" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" t="s">
         <v>130</v>
-      </c>
-      <c r="C7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8" t="s">
         <v>132</v>
-      </c>
-      <c r="C8" t="s">
-        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/att/src/main/resources/incidents/Tennis/TennisAceDoublefaultCounter.xlsx
+++ b/att/src/main/resources/incidents/Tennis/TennisAceDoublefaultCounter.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmorkhandikar\Desktop\MyExcelsheets for testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmorkhandikar\IdeaProjects\cucumberautomation\att\src\main\resources\incidents\Tennis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB0DC6E-2BA5-4FBC-A0C4-19A650981241}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{711E2147-0D45-41EB-BA85-5AAB7B2688D6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" xr2:uid="{0CAF2721-7CD1-43D6-95B2-B935F5B50283}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="147">
   <si>
     <t>matchTime</t>
   </si>
@@ -444,26 +444,38 @@
     <t>00:40</t>
   </si>
   <si>
-    <t>00:52</t>
-  </si>
-  <si>
     <t>04:55</t>
   </si>
   <si>
+    <t>08:55</t>
+  </si>
+  <si>
+    <t>doublefault</t>
+  </si>
+  <si>
+    <t>00:51</t>
+  </si>
+  <si>
+    <t>30-15</t>
+  </si>
+  <si>
+    <t>00:55</t>
+  </si>
+  <si>
+    <t>40-15</t>
+  </si>
+  <si>
     <t>ace</t>
   </si>
   <si>
-    <t>08:55</t>
-  </si>
-  <si>
-    <t>doublefault</t>
+    <t>tennis_serves_first</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -478,6 +490,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -509,7 +527,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="45" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
@@ -522,6 +540,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -836,10 +855,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09E164CF-D012-422D-ACFE-F9F61FCB1949}">
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -898,38 +917,38 @@
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="B3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="D3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
       <c r="G4">
         <v>1</v>
       </c>
@@ -939,40 +958,40 @@
       <c r="I4" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
@@ -981,7 +1000,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>142</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
         <v>16</v>
@@ -1000,37 +1019,37 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="B8" t="s">
         <v>136</v>
@@ -1058,54 +1077,69 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" t="s">
         <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>2</v>
-      </c>
-      <c r="I10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
@@ -1123,30 +1157,15 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
       <c r="D12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1160,16 +1179,16 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>142</v>
+        <v>15</v>
       </c>
       <c r="E13" t="s">
         <v>23</v>
@@ -1189,10 +1208,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
@@ -1218,50 +1237,65 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>140</v>
+      </c>
+      <c r="E15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="B15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>2</v>
-      </c>
-      <c r="I15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="D16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>3</v>
-      </c>
-      <c r="I16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="9" t="s">
-        <v>139</v>
       </c>
       <c r="B17" t="s">
         <v>22</v>
@@ -1270,7 +1304,7 @@
         <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>140</v>
+        <v>15</v>
       </c>
       <c r="E17" t="s">
         <v>29</v>
@@ -1282,30 +1316,15 @@
         <v>1</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" t="s">
-        <v>11</v>
-      </c>
       <c r="D18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1318,17 +1337,17 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="4" t="s">
-        <v>31</v>
+      <c r="A19" s="9" t="s">
+        <v>138</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
         <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>15</v>
+        <v>145</v>
       </c>
       <c r="E19" t="s">
         <v>29</v>
@@ -1348,10 +1367,10 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C20" t="s">
         <v>11</v>
@@ -1377,50 +1396,65 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>3</v>
+      </c>
+      <c r="I21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>3</v>
+      </c>
+      <c r="I22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="B21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>3</v>
-      </c>
-      <c r="I21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D22" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <v>4</v>
-      </c>
-      <c r="I22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="9" t="s">
-        <v>141</v>
       </c>
       <c r="B23" t="s">
         <v>22</v>
@@ -1429,7 +1463,7 @@
         <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>140</v>
+        <v>15</v>
       </c>
       <c r="E23" t="s">
         <v>34</v>
@@ -1441,30 +1475,15 @@
         <v>1</v>
       </c>
       <c r="H23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I23" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" t="s">
-        <v>11</v>
-      </c>
       <c r="D24" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" t="s">
-        <v>34</v>
-      </c>
-      <c r="F24" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1477,17 +1496,17 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="4" t="s">
-        <v>36</v>
+      <c r="A25" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C25" t="s">
         <v>11</v>
       </c>
       <c r="D25" t="s">
-        <v>15</v>
+        <v>145</v>
       </c>
       <c r="E25" t="s">
         <v>34</v>
@@ -1507,10 +1526,10 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C26" t="s">
         <v>11</v>
@@ -1536,10 +1555,10 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C27" t="s">
         <v>11</v>
@@ -1548,7 +1567,7 @@
         <v>15</v>
       </c>
       <c r="E27" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F27" t="s">
         <v>16</v>
@@ -1564,25 +1583,40 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
       <c r="D28" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="E28" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28" t="s">
+        <v>16</v>
       </c>
       <c r="G28">
         <v>1</v>
       </c>
       <c r="H28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I28" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B29" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C29" t="s">
         <v>11</v>
@@ -1600,30 +1634,15 @@
         <v>1</v>
       </c>
       <c r="H29">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I29" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B30" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" t="s">
-        <v>11</v>
-      </c>
       <c r="D30" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" t="s">
-        <v>39</v>
-      </c>
-      <c r="F30" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -1637,10 +1656,10 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B31" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C31" t="s">
         <v>11</v>
@@ -1666,10 +1685,10 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B32" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C32" t="s">
         <v>11</v>
@@ -1678,7 +1697,7 @@
         <v>15</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F32" t="s">
         <v>16</v>
@@ -1694,25 +1713,40 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A33" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" t="s">
+        <v>11</v>
+      </c>
       <c r="D33" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="E33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F33" t="s">
+        <v>16</v>
       </c>
       <c r="G33">
         <v>1</v>
       </c>
       <c r="H33">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I33" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B34" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C34" t="s">
         <v>11</v>
@@ -1730,30 +1764,15 @@
         <v>1</v>
       </c>
       <c r="H34">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I34" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A35" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B35" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" t="s">
-        <v>11</v>
-      </c>
       <c r="D35" t="s">
-        <v>15</v>
-      </c>
-      <c r="E35" t="s">
-        <v>44</v>
-      </c>
-      <c r="F35" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -1767,10 +1786,10 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B36" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C36" t="s">
         <v>11</v>
@@ -1796,10 +1815,10 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B37" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C37" t="s">
         <v>11</v>
@@ -1808,7 +1827,7 @@
         <v>15</v>
       </c>
       <c r="E37" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
         <v>16</v>
@@ -1822,7 +1841,65 @@
       <c r="I37" t="s">
         <v>24</v>
       </c>
-      <c r="J37" s="5" t="s">
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A38" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>6</v>
+      </c>
+      <c r="I38" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A39" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" t="s">
+        <v>49</v>
+      </c>
+      <c r="F39" t="s">
+        <v>16</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>6</v>
+      </c>
+      <c r="I39" t="s">
+        <v>24</v>
+      </c>
+      <c r="J39" s="5" t="s">
         <v>50</v>
       </c>
     </row>
